--- a/data/pca/factorExposure/factorExposure_2010-05-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-07.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01466801113258257</v>
+        <v>-0.01724288242633468</v>
       </c>
       <c r="C2">
-        <v>0.01096067421352632</v>
+        <v>0.001209257549805884</v>
       </c>
       <c r="D2">
-        <v>-0.0213928982292582</v>
+        <v>-0.008413575237286594</v>
       </c>
       <c r="E2">
-        <v>0.01102925847924407</v>
+        <v>0.0008329149480706258</v>
       </c>
       <c r="F2">
-        <v>-0.01906729531521445</v>
+        <v>0.01127088479201562</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1160935165475702</v>
+        <v>-0.09353277429931678</v>
       </c>
       <c r="C4">
-        <v>-0.08401585165937635</v>
+        <v>0.01709483858449403</v>
       </c>
       <c r="D4">
-        <v>0.01992173489116869</v>
+        <v>-0.08298192134958074</v>
       </c>
       <c r="E4">
-        <v>0.0112634670222066</v>
+        <v>-0.02952645469935756</v>
       </c>
       <c r="F4">
-        <v>-0.03212712865369841</v>
+        <v>-0.03357690262359737</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1324479282904573</v>
+        <v>-0.1531349366829195</v>
       </c>
       <c r="C6">
-        <v>-0.06282057860026941</v>
+        <v>0.02480221035056078</v>
       </c>
       <c r="D6">
-        <v>-0.000163292912857128</v>
+        <v>0.02223314508681744</v>
       </c>
       <c r="E6">
-        <v>-0.0325958865072045</v>
+        <v>-0.009204733324004311</v>
       </c>
       <c r="F6">
-        <v>0.006228009693608649</v>
+        <v>-0.04146632487684186</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07590901900655365</v>
+        <v>-0.06052863297731139</v>
       </c>
       <c r="C7">
-        <v>-0.0775743015143586</v>
+        <v>-0.0003005020266577781</v>
       </c>
       <c r="D7">
-        <v>-0.004661548713799762</v>
+        <v>-0.05141499940476802</v>
       </c>
       <c r="E7">
-        <v>0.03439027705070302</v>
+        <v>-0.01544589304989772</v>
       </c>
       <c r="F7">
-        <v>-0.005395608879098853</v>
+        <v>-0.05446361418491485</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04341606375510753</v>
+        <v>-0.05865082015297651</v>
       </c>
       <c r="C8">
-        <v>-0.02970648038154419</v>
+        <v>-0.01271880235577853</v>
       </c>
       <c r="D8">
-        <v>-0.005815386066105065</v>
+        <v>-0.02914888688677675</v>
       </c>
       <c r="E8">
-        <v>-0.03191028560259313</v>
+        <v>-0.01370701899652327</v>
       </c>
       <c r="F8">
-        <v>-0.005315031300070402</v>
+        <v>0.02928162222489379</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08181763925714591</v>
+        <v>-0.07141984124947401</v>
       </c>
       <c r="C9">
-        <v>-0.06413250623304842</v>
+        <v>0.01321745218833128</v>
       </c>
       <c r="D9">
-        <v>0.02793193877540712</v>
+        <v>-0.08309179916022627</v>
       </c>
       <c r="E9">
-        <v>0.006223471993018574</v>
+        <v>-0.02545664431307191</v>
       </c>
       <c r="F9">
-        <v>-0.0107381667892403</v>
+        <v>-0.05528244568003794</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.131479485526926</v>
+        <v>-0.09347684055273096</v>
       </c>
       <c r="C10">
-        <v>0.1477209306212368</v>
+        <v>0.01661556388790619</v>
       </c>
       <c r="D10">
-        <v>-0.02022380202028676</v>
+        <v>0.1713023366039612</v>
       </c>
       <c r="E10">
-        <v>0.03744857749516099</v>
+        <v>0.03735932118736824</v>
       </c>
       <c r="F10">
-        <v>-0.0166930375694255</v>
+        <v>0.05325031939519363</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.07537216900002573</v>
+        <v>-0.08807711970258526</v>
       </c>
       <c r="C11">
-        <v>-0.07158860294396185</v>
+        <v>0.01260800850197792</v>
       </c>
       <c r="D11">
-        <v>0.03531798548096859</v>
+        <v>-0.1140666980145412</v>
       </c>
       <c r="E11">
-        <v>-0.003493009732170941</v>
+        <v>-0.04798608208288425</v>
       </c>
       <c r="F11">
-        <v>-0.01431809918633268</v>
+        <v>-0.02312978375196353</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06642226265157866</v>
+        <v>-0.09328227715877213</v>
       </c>
       <c r="C12">
-        <v>-0.06754745268107788</v>
+        <v>0.0104232703052927</v>
       </c>
       <c r="D12">
-        <v>0.05263548872342848</v>
+        <v>-0.1209927557787516</v>
       </c>
       <c r="E12">
-        <v>0.01510869272144322</v>
+        <v>-0.04712922970548025</v>
       </c>
       <c r="F12">
-        <v>0.0136035539897107</v>
+        <v>-0.02502594440899133</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03166472808730167</v>
+        <v>-0.04312693390092198</v>
       </c>
       <c r="C13">
-        <v>-0.03054027746463591</v>
+        <v>0.004003595457426705</v>
       </c>
       <c r="D13">
-        <v>-0.01306533095347243</v>
+        <v>-0.04691125732338036</v>
       </c>
       <c r="E13">
-        <v>0.01510486467280159</v>
+        <v>0.01248396974264656</v>
       </c>
       <c r="F13">
-        <v>-0.00208935966625322</v>
+        <v>-0.01594765107654907</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03272664516273204</v>
+        <v>-0.02208312011626989</v>
       </c>
       <c r="C14">
-        <v>-0.03268802375514854</v>
+        <v>0.01465934903708403</v>
       </c>
       <c r="D14">
-        <v>0.02043444657489141</v>
+        <v>-0.03278798835730769</v>
       </c>
       <c r="E14">
-        <v>0.005525260925013637</v>
+        <v>-0.01969680335048796</v>
       </c>
       <c r="F14">
-        <v>0.01000919194941267</v>
+        <v>-0.01924378305080156</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01754433983441024</v>
+        <v>-0.03193755492513745</v>
       </c>
       <c r="C15">
-        <v>-0.02662772398723874</v>
+        <v>0.005521650005829478</v>
       </c>
       <c r="D15">
-        <v>-0.06258013126844565</v>
+        <v>-0.04557815032931445</v>
       </c>
       <c r="E15">
-        <v>0.01249382803664774</v>
+        <v>-0.009327543880013294</v>
       </c>
       <c r="F15">
-        <v>-0.01675465414567392</v>
+        <v>-0.03199947905723671</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07954799815088506</v>
+        <v>-0.07461349146346427</v>
       </c>
       <c r="C16">
-        <v>-0.07107130651971891</v>
+        <v>0.00408081395242669</v>
       </c>
       <c r="D16">
-        <v>0.04428508939287037</v>
+        <v>-0.1162476761733172</v>
       </c>
       <c r="E16">
-        <v>-0.02211836434283263</v>
+        <v>-0.06259423676097557</v>
       </c>
       <c r="F16">
-        <v>-0.0035625120902858</v>
+        <v>-0.03328079366025834</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02158063911555203</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003766045134616534</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02133277315121259</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.0105793877331699</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02429235913010729</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.0418860259940692</v>
+        <v>-0.0611094056495995</v>
       </c>
       <c r="C20">
-        <v>-0.03694547992122457</v>
+        <v>0.001870372312299137</v>
       </c>
       <c r="D20">
-        <v>-0.02509313601964372</v>
+        <v>-0.07360523901099164</v>
       </c>
       <c r="E20">
-        <v>0.02486120367989858</v>
+        <v>-0.05500663026460994</v>
       </c>
       <c r="F20">
-        <v>0.01412752682981349</v>
+        <v>-0.0297094298877392</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02485943279733956</v>
+        <v>-0.03912901842119419</v>
       </c>
       <c r="C21">
-        <v>-0.008895240960120008</v>
+        <v>0.007801173056508955</v>
       </c>
       <c r="D21">
-        <v>0.01065139958236741</v>
+        <v>-0.03500949654889553</v>
       </c>
       <c r="E21">
-        <v>-0.006012605447819727</v>
+        <v>0.008813460046951063</v>
       </c>
       <c r="F21">
-        <v>-0.002734872577120051</v>
+        <v>0.0191113914879767</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05856989652981797</v>
+        <v>-0.04233951026821937</v>
       </c>
       <c r="C22">
-        <v>-0.02568005388534764</v>
+        <v>0.0001180281339500673</v>
       </c>
       <c r="D22">
-        <v>-0.6380183466227285</v>
+        <v>-0.001819446509279666</v>
       </c>
       <c r="E22">
-        <v>0.09505542540856751</v>
+        <v>-0.0290284943078432</v>
       </c>
       <c r="F22">
-        <v>0.1497608880035895</v>
+        <v>0.01054960438743903</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05923335130905638</v>
+        <v>-0.04240154835820614</v>
       </c>
       <c r="C23">
-        <v>-0.02708809656226148</v>
+        <v>0.0001430609435632177</v>
       </c>
       <c r="D23">
-        <v>-0.640241249478102</v>
+        <v>-0.001939433878265471</v>
       </c>
       <c r="E23">
-        <v>0.09429891421261959</v>
+        <v>-0.02937816383710157</v>
       </c>
       <c r="F23">
-        <v>0.1492682932834185</v>
+        <v>0.01008661295844613</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08129421015738285</v>
+        <v>-0.08087632329122778</v>
       </c>
       <c r="C24">
-        <v>-0.0707172430561003</v>
+        <v>0.004414309730389854</v>
       </c>
       <c r="D24">
-        <v>0.03884730132934409</v>
+        <v>-0.1170998377100508</v>
       </c>
       <c r="E24">
-        <v>-0.00169078143805146</v>
+        <v>-0.05027875114397706</v>
       </c>
       <c r="F24">
-        <v>-0.0007547021271090722</v>
+        <v>-0.02560802906485758</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08059484154781749</v>
+        <v>-0.0854264499553903</v>
       </c>
       <c r="C25">
-        <v>-0.06721103247288365</v>
+        <v>0.006412088417453801</v>
       </c>
       <c r="D25">
-        <v>0.05266986954095796</v>
+        <v>-0.1053832871664966</v>
       </c>
       <c r="E25">
-        <v>0.01080963542243025</v>
+        <v>-0.03342500889718866</v>
       </c>
       <c r="F25">
-        <v>-0.002751762754982192</v>
+        <v>-0.03356299550593027</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03923968022232641</v>
+        <v>-0.05577230237243402</v>
       </c>
       <c r="C26">
-        <v>0.003676573195098452</v>
+        <v>0.0153117095852646</v>
       </c>
       <c r="D26">
-        <v>-0.01516747879447195</v>
+        <v>-0.03533330639603736</v>
       </c>
       <c r="E26">
-        <v>-0.02149648978017522</v>
+        <v>-0.02723047102458936</v>
       </c>
       <c r="F26">
-        <v>0.0614122065666932</v>
+        <v>0.006506456210892062</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1540945933501146</v>
+        <v>-0.1409084294115536</v>
       </c>
       <c r="C28">
-        <v>0.2744762526922536</v>
+        <v>0.01443156918976751</v>
       </c>
       <c r="D28">
-        <v>-0.003934536520223855</v>
+        <v>0.2682796902941412</v>
       </c>
       <c r="E28">
-        <v>-0.07458307147420221</v>
+        <v>0.06786133859063277</v>
       </c>
       <c r="F28">
-        <v>0.02008463267247432</v>
+        <v>-0.03286259534057777</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03305792079917481</v>
+        <v>-0.02710815131501194</v>
       </c>
       <c r="C29">
-        <v>-0.02922019678466364</v>
+        <v>0.008897633755980544</v>
       </c>
       <c r="D29">
-        <v>0.02503930878371915</v>
+        <v>-0.0314536410714116</v>
       </c>
       <c r="E29">
-        <v>0.03557575159494922</v>
+        <v>-0.01249075368604058</v>
       </c>
       <c r="F29">
-        <v>0.02432989010096621</v>
+        <v>0.0111678743741448</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09244354491812018</v>
+        <v>-0.06386607975321079</v>
       </c>
       <c r="C30">
-        <v>-0.06466826165170854</v>
+        <v>0.005918738083661646</v>
       </c>
       <c r="D30">
-        <v>0.04461933910506371</v>
+        <v>-0.08035512121605155</v>
       </c>
       <c r="E30">
-        <v>-0.08860101875672806</v>
+        <v>-0.0231399689084076</v>
       </c>
       <c r="F30">
-        <v>0.1812346075359138</v>
+        <v>-0.1107479214841323</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03256223747479393</v>
+        <v>-0.04860406948545626</v>
       </c>
       <c r="C31">
-        <v>-0.05167944077595946</v>
+        <v>0.0151984427802211</v>
       </c>
       <c r="D31">
-        <v>0.003917464752661651</v>
+        <v>-0.02806725711348084</v>
       </c>
       <c r="E31">
-        <v>0.02272593988491616</v>
+        <v>-0.0274130224538233</v>
       </c>
       <c r="F31">
-        <v>-0.008278802248359588</v>
+        <v>0.003728559052924228</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05543362531469494</v>
+        <v>-0.04843533430208279</v>
       </c>
       <c r="C32">
-        <v>-0.03455282517118399</v>
+        <v>0.0005149917933733096</v>
       </c>
       <c r="D32">
-        <v>0.04901878816835576</v>
+        <v>-0.03054507595550503</v>
       </c>
       <c r="E32">
-        <v>-0.05665607465674011</v>
+        <v>-0.02970855609570531</v>
       </c>
       <c r="F32">
-        <v>-0.01666118806494035</v>
+        <v>-0.00224893993747594</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08953508411225557</v>
+        <v>-0.09022215147931677</v>
       </c>
       <c r="C33">
-        <v>-0.06774297044149359</v>
+        <v>0.009527963251431199</v>
       </c>
       <c r="D33">
-        <v>0.03766198580871821</v>
+        <v>-0.09374526042640555</v>
       </c>
       <c r="E33">
-        <v>0.006647415155551998</v>
+        <v>-0.04669986964577141</v>
       </c>
       <c r="F33">
-        <v>0.008524566360278043</v>
+        <v>-0.04227356759456567</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06732076751236421</v>
+        <v>-0.06876405575244299</v>
       </c>
       <c r="C34">
-        <v>-0.05446289927139177</v>
+        <v>0.01258818911283369</v>
       </c>
       <c r="D34">
-        <v>0.0447211717096916</v>
+        <v>-0.0979418570485793</v>
       </c>
       <c r="E34">
-        <v>-0.003584360817012064</v>
+        <v>-0.03530195312322985</v>
       </c>
       <c r="F34">
-        <v>-0.004270356411004175</v>
+        <v>-0.04595021446477818</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.009416556796373517</v>
+        <v>-0.02409607459987638</v>
       </c>
       <c r="C35">
-        <v>-0.01378829582114252</v>
+        <v>0.002511784695314235</v>
       </c>
       <c r="D35">
-        <v>0.002844061797425627</v>
+        <v>-0.01142891028972737</v>
       </c>
       <c r="E35">
-        <v>0.01156030947542908</v>
+        <v>-0.01166056189857982</v>
       </c>
       <c r="F35">
-        <v>0.009805061253942871</v>
+        <v>-0.01067264083684477</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02153983304119261</v>
+        <v>-0.02419126465290349</v>
       </c>
       <c r="C36">
-        <v>-0.017196186368592</v>
+        <v>0.007482661487674216</v>
       </c>
       <c r="D36">
-        <v>-0.009593534652112058</v>
+        <v>-0.03805889992215573</v>
       </c>
       <c r="E36">
-        <v>-0.006568868440989683</v>
+        <v>-0.01666548733750597</v>
       </c>
       <c r="F36">
-        <v>0.01968642728494205</v>
+        <v>-0.01187238190020678</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.01142602472137813</v>
+        <v>-0.001818308183397118</v>
       </c>
       <c r="C38">
-        <v>-0.02681853907326335</v>
+        <v>0.0003002743209604987</v>
       </c>
       <c r="D38">
-        <v>-0.02225584609889272</v>
+        <v>-0.002141303893155389</v>
       </c>
       <c r="E38">
-        <v>0.03694632245398446</v>
+        <v>-0.002343887771349716</v>
       </c>
       <c r="F38">
-        <v>0.06749032631515685</v>
+        <v>0.001031878364447923</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1086841760976977</v>
+        <v>-0.1097248676688091</v>
       </c>
       <c r="C39">
-        <v>-0.09494843524834019</v>
+        <v>0.0180539468892966</v>
       </c>
       <c r="D39">
-        <v>0.1476081744513396</v>
+        <v>-0.1506809929835292</v>
       </c>
       <c r="E39">
-        <v>-0.01890705547498067</v>
+        <v>-0.05917258165693993</v>
       </c>
       <c r="F39">
-        <v>0.08880920136880918</v>
+        <v>-0.03539092538491539</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02180394581082872</v>
+        <v>-0.03687642345759173</v>
       </c>
       <c r="C40">
-        <v>-0.06111304125901458</v>
+        <v>0.007350594691058811</v>
       </c>
       <c r="D40">
-        <v>-0.02222955704649987</v>
+        <v>-0.03154218072097972</v>
       </c>
       <c r="E40">
-        <v>0.05512538113124896</v>
+        <v>-0.003942996810001995</v>
       </c>
       <c r="F40">
-        <v>-0.007527297148239601</v>
+        <v>0.0147105500813374</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02885488603388321</v>
+        <v>-0.02615876266154044</v>
       </c>
       <c r="C41">
-        <v>-0.01856579227159721</v>
+        <v>0.006853073281360837</v>
       </c>
       <c r="D41">
-        <v>0.02202772862830229</v>
+        <v>-0.01078794983152122</v>
       </c>
       <c r="E41">
-        <v>0.01253374235933947</v>
+        <v>-0.01202612579905712</v>
       </c>
       <c r="F41">
-        <v>0.01268045573016429</v>
+        <v>0.009548189674908742</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03948183062394599</v>
+        <v>-0.04140947094694521</v>
       </c>
       <c r="C43">
-        <v>-0.02355438512073254</v>
+        <v>0.006901087593299422</v>
       </c>
       <c r="D43">
-        <v>-0.00958201483223625</v>
+        <v>-0.02045861249569911</v>
       </c>
       <c r="E43">
-        <v>0.003864571586757399</v>
+        <v>-0.02533094084962801</v>
       </c>
       <c r="F43">
-        <v>0.04465689328827602</v>
+        <v>0.01098755412730855</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1306548869269475</v>
+        <v>-0.07260595490074725</v>
       </c>
       <c r="C44">
-        <v>-0.1616670000640789</v>
+        <v>0.02224193706390397</v>
       </c>
       <c r="D44">
-        <v>-0.07545695515777023</v>
+        <v>-0.1002030897123572</v>
       </c>
       <c r="E44">
-        <v>0.09878073505840823</v>
+        <v>-0.06753489897525296</v>
       </c>
       <c r="F44">
-        <v>0.03608436662320592</v>
+        <v>-0.1709779545923151</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.03272603581390915</v>
+        <v>-0.02232709566419035</v>
       </c>
       <c r="C46">
-        <v>-0.01386360566679809</v>
+        <v>0.004269485799956028</v>
       </c>
       <c r="D46">
-        <v>-0.02690359422553657</v>
+        <v>-0.01091614996331677</v>
       </c>
       <c r="E46">
-        <v>0.03554378171972673</v>
+        <v>-0.02267514221615255</v>
       </c>
       <c r="F46">
-        <v>0.03095418200203066</v>
+        <v>-0.001647764349562049</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0388970135118745</v>
+        <v>-0.05208929399190048</v>
       </c>
       <c r="C47">
-        <v>-0.02991961081560116</v>
+        <v>0.003419053864350212</v>
       </c>
       <c r="D47">
-        <v>0.003893987882358912</v>
+        <v>-0.01206243654403835</v>
       </c>
       <c r="E47">
-        <v>0.0147544371405011</v>
+        <v>-0.02165805502010527</v>
       </c>
       <c r="F47">
-        <v>0.005848346263761043</v>
+        <v>0.04370667301622234</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04156653863035558</v>
+        <v>-0.04746663178086909</v>
       </c>
       <c r="C48">
-        <v>-0.01743541825534532</v>
+        <v>0.003277877893171246</v>
       </c>
       <c r="D48">
-        <v>0.01621771142610284</v>
+        <v>-0.04739442185757255</v>
       </c>
       <c r="E48">
-        <v>0.01838284180809047</v>
+        <v>0.004705325063747287</v>
       </c>
       <c r="F48">
-        <v>-0.01540348497069139</v>
+        <v>-0.01271517518576011</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2206451217731126</v>
+        <v>-0.2026058545384355</v>
       </c>
       <c r="C49">
-        <v>0.0199370909353294</v>
+        <v>0.01700080566286978</v>
       </c>
       <c r="D49">
-        <v>0.03544165876658362</v>
+        <v>0.01035326697582832</v>
       </c>
       <c r="E49">
-        <v>0.0795813555363382</v>
+        <v>-0.03573548241016278</v>
       </c>
       <c r="F49">
-        <v>-0.03064175748923267</v>
+        <v>-0.03191738722722089</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0399199400040543</v>
+        <v>-0.04852621030224325</v>
       </c>
       <c r="C50">
-        <v>-0.03129770943680801</v>
+        <v>0.01131715624362995</v>
       </c>
       <c r="D50">
-        <v>0.01918755009020718</v>
+        <v>-0.0262947323202208</v>
       </c>
       <c r="E50">
-        <v>0.008277207248289802</v>
+        <v>-0.02894973914160717</v>
       </c>
       <c r="F50">
-        <v>0.03347332544759659</v>
+        <v>-0.009342379492105557</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01908186421597916</v>
+        <v>-0.002706516339367109</v>
       </c>
       <c r="C51">
-        <v>0.01676586527647909</v>
+        <v>0.0006804902931479468</v>
       </c>
       <c r="D51">
-        <v>-0.003024039442056529</v>
+        <v>0.002637334590741829</v>
       </c>
       <c r="E51">
-        <v>0.01017490916579477</v>
+        <v>-1.325575852467742e-05</v>
       </c>
       <c r="F51">
-        <v>-0.02303863386044011</v>
+        <v>-0.005418813453361313</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.08188338340766216</v>
+        <v>-0.1447721601808406</v>
       </c>
       <c r="C52">
-        <v>-0.0718068696158089</v>
+        <v>0.01352623417047368</v>
       </c>
       <c r="D52">
-        <v>0.01692577637440983</v>
+        <v>-0.05067306725859384</v>
       </c>
       <c r="E52">
-        <v>0.01879985414768699</v>
+        <v>-0.02130985324891513</v>
       </c>
       <c r="F52">
-        <v>0.04653741014003895</v>
+        <v>-0.03521236438311385</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1585627521720858</v>
+        <v>-0.1739830075988776</v>
       </c>
       <c r="C53">
-        <v>-0.04704443475090413</v>
+        <v>0.01642185437319015</v>
       </c>
       <c r="D53">
-        <v>-0.01516561713315832</v>
+        <v>-0.01180096308097109</v>
       </c>
       <c r="E53">
-        <v>0.04530020450770884</v>
+        <v>-0.03549045088928932</v>
       </c>
       <c r="F53">
-        <v>0.06534221071632464</v>
+        <v>-0.06329339246627737</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05592597274764043</v>
+        <v>-0.02222994481174858</v>
       </c>
       <c r="C54">
-        <v>-0.06875218986920399</v>
+        <v>0.01248976714038207</v>
       </c>
       <c r="D54">
-        <v>0.001765223355350185</v>
+        <v>-0.03436756289967994</v>
       </c>
       <c r="E54">
-        <v>0.01820843667383664</v>
+        <v>-0.01542935569109695</v>
       </c>
       <c r="F54">
-        <v>-0.02378139486300243</v>
+        <v>0.002912647210541332</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08461824437122256</v>
+        <v>-0.1148026584404882</v>
       </c>
       <c r="C55">
-        <v>-0.04558770444314404</v>
+        <v>0.01507280508833755</v>
       </c>
       <c r="D55">
-        <v>0.03343745952551035</v>
+        <v>-0.0109704441354064</v>
       </c>
       <c r="E55">
-        <v>0.02023624544510091</v>
+        <v>-0.02998943992150009</v>
       </c>
       <c r="F55">
-        <v>0.01664159382513962</v>
+        <v>-0.04650759882277092</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1515293155883412</v>
+        <v>-0.1779260295150618</v>
       </c>
       <c r="C56">
-        <v>-0.07994760188079927</v>
+        <v>0.01383848095329306</v>
       </c>
       <c r="D56">
-        <v>0.02411891221287079</v>
+        <v>-0.007375485693228701</v>
       </c>
       <c r="E56">
-        <v>0.08486130449023321</v>
+        <v>-0.0397833383412331</v>
       </c>
       <c r="F56">
-        <v>0.04024771493156631</v>
+        <v>-0.03986068201177232</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.05632913825063288</v>
+        <v>-0.04631300158453691</v>
       </c>
       <c r="C58">
-        <v>-0.04419244706434328</v>
+        <v>0.002461832748992855</v>
       </c>
       <c r="D58">
-        <v>-0.04445545898261379</v>
+        <v>-0.06528000556422532</v>
       </c>
       <c r="E58">
-        <v>0.03624473463371285</v>
+        <v>-0.02249524610576364</v>
       </c>
       <c r="F58">
-        <v>0.02698347965208911</v>
+        <v>0.04570027061027436</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2100736876351739</v>
+        <v>-0.1712815662378953</v>
       </c>
       <c r="C59">
-        <v>0.2235510079435821</v>
+        <v>0.01595962471552898</v>
       </c>
       <c r="D59">
-        <v>0.04063612641490334</v>
+        <v>0.2263642511913375</v>
       </c>
       <c r="E59">
-        <v>-0.02761112976949141</v>
+        <v>0.04893563262827189</v>
       </c>
       <c r="F59">
-        <v>-0.09228734912751663</v>
+        <v>0.03070953735828497</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2240609164206914</v>
+        <v>-0.2373783833773987</v>
       </c>
       <c r="C60">
-        <v>-0.07982186718771726</v>
+        <v>-0.004041955879763747</v>
       </c>
       <c r="D60">
-        <v>0.07623420597943946</v>
+        <v>-0.04648921677248673</v>
       </c>
       <c r="E60">
-        <v>0.1229815391250292</v>
+        <v>-0.005617885083673087</v>
       </c>
       <c r="F60">
-        <v>0.01435381760441547</v>
+        <v>0.03067229826874607</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1045985799024305</v>
+        <v>-0.08458457216185833</v>
       </c>
       <c r="C61">
-        <v>-0.0600376923195217</v>
+        <v>0.01415115918759429</v>
       </c>
       <c r="D61">
-        <v>0.08986347654419941</v>
+        <v>-0.1111481094734028</v>
       </c>
       <c r="E61">
-        <v>0.01468179501994832</v>
+        <v>-0.04059382183661879</v>
       </c>
       <c r="F61">
-        <v>0.04112891260906237</v>
+        <v>-0.020588527436318</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1485511566741305</v>
+        <v>-0.1706626359739435</v>
       </c>
       <c r="C62">
-        <v>-0.05891625862969951</v>
+        <v>0.01776920725342626</v>
       </c>
       <c r="D62">
-        <v>-0.004295462604453858</v>
+        <v>-0.01105227439287625</v>
       </c>
       <c r="E62">
-        <v>0.06354814066149586</v>
+        <v>-0.03717886024901149</v>
       </c>
       <c r="F62">
-        <v>0.03790880016162001</v>
+        <v>-0.02151366132748263</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04467951588191343</v>
+        <v>-0.04305402973849047</v>
       </c>
       <c r="C63">
-        <v>-0.02575214107665573</v>
+        <v>0.003591998187065524</v>
       </c>
       <c r="D63">
-        <v>0.009823102260696171</v>
+        <v>-0.04998822836757068</v>
       </c>
       <c r="E63">
-        <v>-0.02887795069556058</v>
+        <v>-0.02151546098260937</v>
       </c>
       <c r="F63">
-        <v>0.004707273909638037</v>
+        <v>-0.008971281019612436</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.08989538474337587</v>
+        <v>-0.1127159918770678</v>
       </c>
       <c r="C64">
-        <v>-0.0433421020972775</v>
+        <v>0.01213056635477755</v>
       </c>
       <c r="D64">
-        <v>0.01237505002140522</v>
+        <v>-0.04144814359214469</v>
       </c>
       <c r="E64">
-        <v>0.06253767606455489</v>
+        <v>-0.02014314888985087</v>
       </c>
       <c r="F64">
-        <v>0.05635887460757807</v>
+        <v>-0.0250869346443632</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1253486006574037</v>
+        <v>-0.1444572801653019</v>
       </c>
       <c r="C65">
-        <v>-0.05639278535695533</v>
+        <v>0.0311844779608593</v>
       </c>
       <c r="D65">
-        <v>0.02064849657316999</v>
+        <v>0.04374753019230614</v>
       </c>
       <c r="E65">
-        <v>-0.04277594476147028</v>
+        <v>-0.0003178814192967635</v>
       </c>
       <c r="F65">
-        <v>0.05354584442475687</v>
+        <v>-0.04292494745114738</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1262490043667317</v>
+        <v>-0.13130187104104</v>
       </c>
       <c r="C66">
-        <v>-0.1167437237495784</v>
+        <v>0.01568929846650718</v>
       </c>
       <c r="D66">
-        <v>0.1352881887845446</v>
+        <v>-0.13799004375056</v>
       </c>
       <c r="E66">
-        <v>0.007653914426129843</v>
+        <v>-0.06553737863894857</v>
       </c>
       <c r="F66">
-        <v>0.1201182447706478</v>
+        <v>-0.04047194960584946</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.0542412629534938</v>
+        <v>-0.06277072656156472</v>
       </c>
       <c r="C67">
-        <v>-0.02963321410833927</v>
+        <v>0.003533468163419402</v>
       </c>
       <c r="D67">
-        <v>-0.03162343441876318</v>
+        <v>-0.05450696605649071</v>
       </c>
       <c r="E67">
-        <v>0.0139957828265068</v>
+        <v>-0.02008772051573272</v>
       </c>
       <c r="F67">
-        <v>0.06199192090756822</v>
+        <v>0.04069405471864929</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1268716072488482</v>
+        <v>-0.1149032978019657</v>
       </c>
       <c r="C68">
-        <v>0.2506129183092775</v>
+        <v>0.02534498460303669</v>
       </c>
       <c r="D68">
-        <v>0.006981754079598205</v>
+        <v>0.2657675151528603</v>
       </c>
       <c r="E68">
-        <v>-0.0802761984210385</v>
+        <v>0.08654772594983494</v>
       </c>
       <c r="F68">
-        <v>0.009231983480389901</v>
+        <v>-0.03833856454697723</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04055004710319363</v>
+        <v>-0.039540852931458</v>
       </c>
       <c r="C69">
-        <v>0.004763695407616818</v>
+        <v>0.001136589063833522</v>
       </c>
       <c r="D69">
-        <v>-0.0002710220048143459</v>
+        <v>-0.009083971867119548</v>
       </c>
       <c r="E69">
-        <v>0.009890391585841587</v>
+        <v>-0.0240889815198755</v>
       </c>
       <c r="F69">
-        <v>0.03990281554347479</v>
+        <v>0.0128969446492596</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.03559437721044355</v>
+        <v>-0.0637728502142398</v>
       </c>
       <c r="C70">
-        <v>-0.009517403991801277</v>
+        <v>-0.02764006109458011</v>
       </c>
       <c r="D70">
-        <v>0.03808137455766148</v>
+        <v>-0.02647565527863702</v>
       </c>
       <c r="E70">
-        <v>0.01761386450039892</v>
+        <v>0.0482162933334867</v>
       </c>
       <c r="F70">
-        <v>0.06666838022627125</v>
+        <v>0.284577983949989</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1467798628063047</v>
+        <v>-0.1336239108204696</v>
       </c>
       <c r="C71">
-        <v>0.2663525900581096</v>
+        <v>0.0296148408301975</v>
       </c>
       <c r="D71">
-        <v>0.0008073737031295525</v>
+        <v>0.2811067690001226</v>
       </c>
       <c r="E71">
-        <v>-0.0416345563352922</v>
+        <v>0.09475087658629708</v>
       </c>
       <c r="F71">
-        <v>0.05818352195920073</v>
+        <v>-0.04287624752939352</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.14245703852698</v>
+        <v>-0.1393231295399914</v>
       </c>
       <c r="C72">
-        <v>-0.02753469944012966</v>
+        <v>0.02443362269854728</v>
       </c>
       <c r="D72">
-        <v>0.00477512860106023</v>
+        <v>-0.005062889179809719</v>
       </c>
       <c r="E72">
-        <v>0.01517690661232528</v>
+        <v>-0.04462245927034637</v>
       </c>
       <c r="F72">
-        <v>0.04075071743802271</v>
+        <v>-0.02064529933047899</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2140311843441773</v>
+        <v>-0.2047369900516696</v>
       </c>
       <c r="C73">
-        <v>-0.01725978311970548</v>
+        <v>0.01130926070045405</v>
       </c>
       <c r="D73">
-        <v>0.122892361052859</v>
+        <v>-0.01596063345742554</v>
       </c>
       <c r="E73">
-        <v>0.1491832728845356</v>
+        <v>-0.06139706959536845</v>
       </c>
       <c r="F73">
-        <v>0.04564514576926584</v>
+        <v>-0.03563791101887978</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1151475884580731</v>
+        <v>-0.09413745189035466</v>
       </c>
       <c r="C74">
-        <v>-0.09719979631697152</v>
+        <v>0.01220181805140217</v>
       </c>
       <c r="D74">
-        <v>0.00854092214430468</v>
+        <v>-0.02259503976121478</v>
       </c>
       <c r="E74">
-        <v>0.03540209754116432</v>
+        <v>-0.04863139836602983</v>
       </c>
       <c r="F74">
-        <v>0.07816144938438591</v>
+        <v>-0.04236751910506806</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1034579527817306</v>
+        <v>-0.1300308010669871</v>
       </c>
       <c r="C75">
-        <v>-0.07083786543055438</v>
+        <v>0.02639595053683062</v>
       </c>
       <c r="D75">
-        <v>0.008954608010013011</v>
+        <v>-0.03425501937321106</v>
       </c>
       <c r="E75">
-        <v>0.02797975040309933</v>
+        <v>-0.06034841705618547</v>
       </c>
       <c r="F75">
-        <v>-0.02445758015896843</v>
+        <v>-0.01397666189891065</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.03297556689858035</v>
+        <v>-0.004708785642106023</v>
       </c>
       <c r="C76">
-        <v>0.003082804964610347</v>
+        <v>0.001096465042829381</v>
       </c>
       <c r="D76">
-        <v>0.006010334668891735</v>
+        <v>0.001805429717603545</v>
       </c>
       <c r="E76">
-        <v>0.02448177665914483</v>
+        <v>-0.002204859950951284</v>
       </c>
       <c r="F76">
-        <v>-0.004206780656340068</v>
+        <v>-0.004077412026286728</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06831506333591042</v>
+        <v>-0.07920807949380938</v>
       </c>
       <c r="C77">
-        <v>-0.04572026826378463</v>
+        <v>0.01034392320005616</v>
       </c>
       <c r="D77">
-        <v>0.03550191332430105</v>
+        <v>-0.1115314653692384</v>
       </c>
       <c r="E77">
-        <v>0.045545441581486</v>
+        <v>-0.03745763297254261</v>
       </c>
       <c r="F77">
-        <v>-0.01523034805295141</v>
+        <v>-0.03435209638765502</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1314104042956075</v>
+        <v>-0.1059813468469346</v>
       </c>
       <c r="C78">
-        <v>-0.1190280190565093</v>
+        <v>0.04191230457403403</v>
       </c>
       <c r="D78">
-        <v>-0.1805622460442124</v>
+        <v>-0.1184118034003043</v>
       </c>
       <c r="E78">
-        <v>-0.1013448251994953</v>
+        <v>-0.08536084262879524</v>
       </c>
       <c r="F78">
-        <v>-0.8323801997336755</v>
+        <v>-0.07242858730380826</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1320017890860189</v>
+        <v>-0.1645622771495202</v>
       </c>
       <c r="C79">
-        <v>-0.06615331402586352</v>
+        <v>0.02034503461302618</v>
       </c>
       <c r="D79">
-        <v>-0.003457016444521159</v>
+        <v>-0.01868588200302662</v>
       </c>
       <c r="E79">
-        <v>0.05461266999373062</v>
+        <v>-0.04836799361679826</v>
       </c>
       <c r="F79">
-        <v>0.03842153659314521</v>
+        <v>-0.005928655741644015</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07147700305086933</v>
+        <v>-0.08028006089119147</v>
       </c>
       <c r="C80">
-        <v>-0.05109203736650526</v>
+        <v>-0.0004173020946841441</v>
       </c>
       <c r="D80">
-        <v>0.07438879469879128</v>
+        <v>-0.05870341877982953</v>
       </c>
       <c r="E80">
-        <v>-0.001474416248470206</v>
+        <v>-0.03460435348297477</v>
       </c>
       <c r="F80">
-        <v>0.01904406015079546</v>
+        <v>0.01470593304299088</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1340296078394017</v>
+        <v>-0.1233110634452215</v>
       </c>
       <c r="C81">
-        <v>-0.08833319043512343</v>
+        <v>0.03044325850366024</v>
       </c>
       <c r="D81">
-        <v>0.003870475185611444</v>
+        <v>-0.01855407821284921</v>
       </c>
       <c r="E81">
-        <v>0.0500870468189596</v>
+        <v>-0.05919308108138141</v>
       </c>
       <c r="F81">
-        <v>0.003201042823500569</v>
+        <v>-0.004114792482884568</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1440851427633316</v>
+        <v>-0.1639525954706109</v>
       </c>
       <c r="C82">
-        <v>-0.06000912644910285</v>
+        <v>0.02134694133594729</v>
       </c>
       <c r="D82">
-        <v>0.01216841375900167</v>
+        <v>-0.01592682429067058</v>
       </c>
       <c r="E82">
-        <v>0.04011637572879683</v>
+        <v>-0.03389345130355365</v>
       </c>
       <c r="F82">
-        <v>0.05331072218667757</v>
+        <v>-0.06042292973222609</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.0894892348232815</v>
+        <v>-0.0638151774674155</v>
       </c>
       <c r="C83">
-        <v>-0.1571435836214301</v>
+        <v>0.003536669023193543</v>
       </c>
       <c r="D83">
-        <v>0.01842264590078723</v>
+        <v>-0.0490341189008048</v>
       </c>
       <c r="E83">
-        <v>0.009205995284062091</v>
+        <v>-0.005047317299228852</v>
       </c>
       <c r="F83">
-        <v>0.01298724829960931</v>
+        <v>0.04097359956974177</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05121195041774614</v>
+        <v>-0.05975746125065636</v>
       </c>
       <c r="C84">
-        <v>0.1169018648719439</v>
+        <v>0.01137592802199907</v>
       </c>
       <c r="D84">
-        <v>0.04654619851862861</v>
+        <v>-0.06196309804516987</v>
       </c>
       <c r="E84">
-        <v>-0.01847134613265886</v>
+        <v>-0.0001139415471220639</v>
       </c>
       <c r="F84">
-        <v>-0.1765341127592586</v>
+        <v>-0.01253906474153146</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1196017504913616</v>
+        <v>-0.1386698243653365</v>
       </c>
       <c r="C85">
-        <v>-0.0480880809253968</v>
+        <v>0.02585865564319094</v>
       </c>
       <c r="D85">
-        <v>0.01023663123045332</v>
+        <v>-0.01483648452067469</v>
       </c>
       <c r="E85">
-        <v>0.06865296755074035</v>
+        <v>-0.04067875878478944</v>
       </c>
       <c r="F85">
-        <v>0.03017892842506989</v>
+        <v>-0.0439665820477936</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09175196308074514</v>
+        <v>-0.09903402588445298</v>
       </c>
       <c r="C86">
-        <v>-0.01674968954048665</v>
+        <v>-0.006700111113522027</v>
       </c>
       <c r="D86">
-        <v>-0.005785241693876396</v>
+        <v>-0.0199442128230978</v>
       </c>
       <c r="E86">
-        <v>0.1804955987388175</v>
+        <v>-0.1483691030645909</v>
       </c>
       <c r="F86">
-        <v>-0.2628464409569928</v>
+        <v>0.8604817198206942</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1216460126700961</v>
+        <v>-0.09835341998515543</v>
       </c>
       <c r="C87">
-        <v>-0.1264708931724561</v>
+        <v>0.02504596451446505</v>
       </c>
       <c r="D87">
-        <v>0.0002521016336466476</v>
+        <v>-0.07681198620460322</v>
       </c>
       <c r="E87">
-        <v>0.07546647566239466</v>
+        <v>0.05250101489710859</v>
       </c>
       <c r="F87">
-        <v>-0.02906659950349133</v>
+        <v>-0.07815768594176835</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.04972630246280061</v>
+        <v>-0.06169464607953198</v>
       </c>
       <c r="C88">
-        <v>-0.04791561479084879</v>
+        <v>0.003107059109737453</v>
       </c>
       <c r="D88">
-        <v>0.04731015281053996</v>
+        <v>-0.05350142546306979</v>
       </c>
       <c r="E88">
-        <v>0.02653462817763135</v>
+        <v>-0.02740728892242099</v>
       </c>
       <c r="F88">
-        <v>0.04557330427557785</v>
+        <v>-0.00909484804494807</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2051570555879863</v>
+        <v>-0.1344781396200375</v>
       </c>
       <c r="C89">
-        <v>0.3618402927624467</v>
+        <v>0.007736924910751623</v>
       </c>
       <c r="D89">
-        <v>-0.0613948815392481</v>
+        <v>0.2598433748476239</v>
       </c>
       <c r="E89">
-        <v>-0.0381539252873583</v>
+        <v>0.09151656009429625</v>
       </c>
       <c r="F89">
-        <v>-0.01153567665916779</v>
+        <v>-0.0266505036200961</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1589816763305999</v>
+        <v>-0.1449124744673958</v>
       </c>
       <c r="C90">
-        <v>0.2520366208519273</v>
+        <v>0.02505337382393068</v>
       </c>
       <c r="D90">
-        <v>0.005252158779770632</v>
+        <v>0.2682908823091965</v>
       </c>
       <c r="E90">
-        <v>-0.02675251859711925</v>
+        <v>0.1077094158448031</v>
       </c>
       <c r="F90">
-        <v>0.0446404488581774</v>
+        <v>-0.02685301908065806</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.0786300777933357</v>
+        <v>-0.1187310294659458</v>
       </c>
       <c r="C91">
-        <v>-0.05048920974348135</v>
+        <v>0.01675240830551598</v>
       </c>
       <c r="D91">
-        <v>0.008042787284698556</v>
+        <v>0.006787985105193629</v>
       </c>
       <c r="E91">
-        <v>0.05197759801919644</v>
+        <v>-0.05719290288316194</v>
       </c>
       <c r="F91">
-        <v>0.007482675836658852</v>
+        <v>0.02069685454968385</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1776599618374552</v>
+        <v>-0.1482779745114291</v>
       </c>
       <c r="C92">
-        <v>0.2963098094805064</v>
+        <v>0.01693342153311646</v>
       </c>
       <c r="D92">
-        <v>-0.03576129464320432</v>
+        <v>0.2993110187844861</v>
       </c>
       <c r="E92">
-        <v>-0.04924066565467403</v>
+        <v>0.1032921752045657</v>
       </c>
       <c r="F92">
-        <v>-0.003099508121464363</v>
+        <v>-0.02378476454081249</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1626584169655822</v>
+        <v>-0.1493400464027414</v>
       </c>
       <c r="C93">
-        <v>0.3137620431223945</v>
+        <v>0.02167534759445829</v>
       </c>
       <c r="D93">
-        <v>0.03611348803326048</v>
+        <v>0.2712218641899689</v>
       </c>
       <c r="E93">
-        <v>-0.03734278338930885</v>
+        <v>0.07360956110444623</v>
       </c>
       <c r="F93">
-        <v>0.03563016602210615</v>
+        <v>-0.0189740556580155</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1323503594033241</v>
+        <v>-0.1334861854694594</v>
       </c>
       <c r="C94">
-        <v>-0.06929292905199516</v>
+        <v>0.02389270744896311</v>
       </c>
       <c r="D94">
-        <v>-0.007103431736158247</v>
+        <v>-0.04588037880404951</v>
       </c>
       <c r="E94">
-        <v>0.03579633521539209</v>
+        <v>-0.06098594693344592</v>
       </c>
       <c r="F94">
-        <v>0.006671789630954003</v>
+        <v>-0.0315811891334574</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1150314286469361</v>
+        <v>-0.1255156516249373</v>
       </c>
       <c r="C95">
-        <v>-0.05131550012427765</v>
+        <v>0.005528774534666304</v>
       </c>
       <c r="D95">
-        <v>-0.01127803188148968</v>
+        <v>-0.09148661854477041</v>
       </c>
       <c r="E95">
-        <v>0.03658481552340808</v>
+        <v>-0.04501135347268304</v>
       </c>
       <c r="F95">
-        <v>-0.07528092870848545</v>
+        <v>0.01135081572277688</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.007065635732658161</v>
+        <v>-0.09850749557260241</v>
       </c>
       <c r="C96">
-        <v>-0.008265048936377783</v>
+        <v>-0.9889438667770151</v>
       </c>
       <c r="D96">
-        <v>0.0007822833792321463</v>
+        <v>0.02696190851524337</v>
       </c>
       <c r="E96">
-        <v>0.0007442269007192909</v>
+        <v>-0.05819723558639917</v>
       </c>
       <c r="F96">
-        <v>-0.02384149153267539</v>
+        <v>-0.0480381775608589</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.173485376120093</v>
+        <v>-0.1879349763783907</v>
       </c>
       <c r="C97">
-        <v>-0.2139148475599605</v>
+        <v>-0.01125681466584074</v>
       </c>
       <c r="D97">
-        <v>-0.09810058581688347</v>
+        <v>0.006954520262287835</v>
       </c>
       <c r="E97">
-        <v>-0.8761950662959755</v>
+        <v>-0.02007061088826912</v>
       </c>
       <c r="F97">
-        <v>0.08380821785937277</v>
+        <v>0.1807562266856468</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2339052557528506</v>
+        <v>-0.2043109915217089</v>
       </c>
       <c r="C98">
-        <v>-0.05569518690828153</v>
+        <v>0.006894296202550006</v>
       </c>
       <c r="D98">
-        <v>-0.08364247702377009</v>
+        <v>-0.01330322790717395</v>
       </c>
       <c r="E98">
-        <v>0.01827210570707364</v>
+        <v>0.09467802344250612</v>
       </c>
       <c r="F98">
-        <v>-0.08310860025492899</v>
+        <v>0.1218719966508494</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05365788828574618</v>
+        <v>-0.05677238324799105</v>
       </c>
       <c r="C99">
-        <v>-0.0187609772277259</v>
+        <v>-0.003762009997284198</v>
       </c>
       <c r="D99">
-        <v>0.002310662422290956</v>
+        <v>-0.0363576509752157</v>
       </c>
       <c r="E99">
-        <v>0.01965180602390973</v>
+        <v>-0.02704950720654803</v>
       </c>
       <c r="F99">
-        <v>-0.003779602777238672</v>
+        <v>-0.004504401090630474</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.000988214277019262</v>
+        <v>-0.1241266652411014</v>
       </c>
       <c r="C100">
-        <v>-0.009283004966843983</v>
+        <v>-0.04941600727626813</v>
       </c>
       <c r="D100">
-        <v>0.001358638185625573</v>
+        <v>-0.3417285751259643</v>
       </c>
       <c r="E100">
-        <v>-0.127107342033884</v>
+        <v>0.8975133092502189</v>
       </c>
       <c r="F100">
-        <v>0.04579061899731136</v>
+        <v>0.07214280989784221</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03263652272686195</v>
+        <v>-0.02704483509390752</v>
       </c>
       <c r="C101">
-        <v>-0.02969433200167731</v>
+        <v>0.008900960522308423</v>
       </c>
       <c r="D101">
-        <v>0.02608955617991039</v>
+        <v>-0.03118571085742194</v>
       </c>
       <c r="E101">
-        <v>0.03569469249938354</v>
+        <v>-0.01202409857566076</v>
       </c>
       <c r="F101">
-        <v>0.02201433173628377</v>
+        <v>0.01309991634056323</v>
       </c>
     </row>
     <row r="102" spans="1:6">
